--- a/Excel/镇魂街/national_monster国战怪物表.xlsx
+++ b/Excel/镇魂街/national_monster国战怪物表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="200">
   <si>
     <t>Des1</t>
   </si>
@@ -673,6 +673,16 @@
   </si>
   <si>
     <t>配对</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Difficult</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度标识
+目前显示为：
+统御等级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1286,7 +1296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -4093,22 +4103,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM54"/>
+  <dimension ref="A1:AN54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="18.375" style="7" customWidth="1"/>
-    <col min="3" max="4" width="9" style="7"/>
-    <col min="5" max="5" width="12.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="7"/>
+    <col min="3" max="5" width="9" style="7"/>
+    <col min="6" max="6" width="12.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>127</v>
       </c>
@@ -4122,12 +4132,14 @@
         <v>125</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="6"/>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
@@ -4149,8 +4161,9 @@
       <c r="AK1" s="6"/>
       <c r="AL1" s="6"/>
       <c r="AM1" s="6"/>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AN1" s="6"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>124</v>
       </c>
@@ -4167,10 +4180,13 @@
         <v>20</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="8" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" s="8" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>48</v>
       </c>
@@ -4183,14 +4199,17 @@
       <c r="D3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -4209,8 +4228,11 @@
       <c r="F4" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -4224,13 +4246,16 @@
         <v>2</v>
       </c>
       <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -4244,13 +4269,16 @@
         <v>3</v>
       </c>
       <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -4264,13 +4292,16 @@
         <v>4</v>
       </c>
       <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -4284,13 +4315,16 @@
         <v>5</v>
       </c>
       <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -4304,13 +4338,16 @@
         <v>6</v>
       </c>
       <c r="E9" s="7">
-        <v>2</v>
-      </c>
-      <c r="F9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -4324,13 +4361,16 @@
         <v>7</v>
       </c>
       <c r="E10" s="7">
-        <v>2</v>
-      </c>
-      <c r="F10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -4344,13 +4384,16 @@
         <v>8</v>
       </c>
       <c r="E11" s="7">
-        <v>2</v>
-      </c>
-      <c r="F11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -4364,13 +4407,16 @@
         <v>9</v>
       </c>
       <c r="E12" s="7">
-        <v>2</v>
-      </c>
-      <c r="F12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -4389,8 +4435,11 @@
       <c r="F13" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -4404,13 +4453,16 @@
         <v>2</v>
       </c>
       <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -4424,13 +4476,16 @@
         <v>3</v>
       </c>
       <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>13</v>
       </c>
@@ -4444,13 +4499,16 @@
         <v>4</v>
       </c>
       <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>14</v>
       </c>
@@ -4464,13 +4522,16 @@
         <v>5</v>
       </c>
       <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>15</v>
       </c>
@@ -4484,13 +4545,16 @@
         <v>6</v>
       </c>
       <c r="E18" s="7">
-        <v>2</v>
-      </c>
-      <c r="F18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>16</v>
       </c>
@@ -4504,13 +4568,16 @@
         <v>7</v>
       </c>
       <c r="E19" s="7">
-        <v>2</v>
-      </c>
-      <c r="F19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>17</v>
       </c>
@@ -4524,13 +4591,16 @@
         <v>8</v>
       </c>
       <c r="E20" s="7">
-        <v>2</v>
-      </c>
-      <c r="F20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>18</v>
       </c>
@@ -4544,13 +4614,16 @@
         <v>9</v>
       </c>
       <c r="E21" s="7">
-        <v>2</v>
-      </c>
-      <c r="F21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>19</v>
       </c>
@@ -4569,8 +4642,11 @@
       <c r="F22" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>20</v>
       </c>
@@ -4584,13 +4660,16 @@
         <v>2</v>
       </c>
       <c r="E23" s="7">
-        <v>1</v>
-      </c>
-      <c r="F23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>21</v>
       </c>
@@ -4604,13 +4683,16 @@
         <v>3</v>
       </c>
       <c r="E24" s="7">
-        <v>1</v>
-      </c>
-      <c r="F24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>22</v>
       </c>
@@ -4624,13 +4706,16 @@
         <v>4</v>
       </c>
       <c r="E25" s="7">
-        <v>1</v>
-      </c>
-      <c r="F25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>23</v>
       </c>
@@ -4644,13 +4729,16 @@
         <v>5</v>
       </c>
       <c r="E26" s="7">
-        <v>1</v>
-      </c>
-      <c r="F26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>24</v>
       </c>
@@ -4664,13 +4752,16 @@
         <v>6</v>
       </c>
       <c r="E27" s="7">
-        <v>2</v>
-      </c>
-      <c r="F27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>25</v>
       </c>
@@ -4684,13 +4775,16 @@
         <v>7</v>
       </c>
       <c r="E28" s="7">
-        <v>2</v>
-      </c>
-      <c r="F28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>26</v>
       </c>
@@ -4704,13 +4798,16 @@
         <v>8</v>
       </c>
       <c r="E29" s="7">
-        <v>2</v>
-      </c>
-      <c r="F29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>27</v>
       </c>
@@ -4724,13 +4821,16 @@
         <v>9</v>
       </c>
       <c r="E30" s="7">
-        <v>2</v>
-      </c>
-      <c r="F30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>28</v>
       </c>
@@ -4744,13 +4844,16 @@
         <v>10</v>
       </c>
       <c r="E31" s="7">
-        <v>3</v>
-      </c>
-      <c r="F31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>29</v>
       </c>
@@ -4764,13 +4867,16 @@
         <v>11</v>
       </c>
       <c r="E32" s="7">
-        <v>3</v>
-      </c>
-      <c r="F32" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>30</v>
       </c>
@@ -4784,13 +4890,16 @@
         <v>12</v>
       </c>
       <c r="E33" s="7">
-        <v>3</v>
-      </c>
-      <c r="F33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>31</v>
       </c>
@@ -4804,13 +4913,16 @@
         <v>13</v>
       </c>
       <c r="E34" s="7">
-        <v>3</v>
-      </c>
-      <c r="F34" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="7">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>32</v>
       </c>
@@ -4824,13 +4936,16 @@
         <v>14</v>
       </c>
       <c r="E35" s="7">
-        <v>3</v>
-      </c>
-      <c r="F35" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>33</v>
       </c>
@@ -4844,13 +4959,16 @@
         <v>15</v>
       </c>
       <c r="E36" s="7">
-        <v>3</v>
-      </c>
-      <c r="F36" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="7">
+        <v>1</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>34</v>
       </c>
@@ -4869,8 +4987,11 @@
       <c r="F37" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>35</v>
       </c>
@@ -4884,13 +5005,16 @@
         <v>2</v>
       </c>
       <c r="E38" s="7">
-        <v>1</v>
-      </c>
-      <c r="F38" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="7">
+        <v>1</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>36</v>
       </c>
@@ -4904,13 +5028,16 @@
         <v>3</v>
       </c>
       <c r="E39" s="7">
-        <v>1</v>
-      </c>
-      <c r="F39" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="7">
+        <v>1</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>37</v>
       </c>
@@ -4924,13 +5051,16 @@
         <v>4</v>
       </c>
       <c r="E40" s="7">
-        <v>1</v>
-      </c>
-      <c r="F40" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="7">
+        <v>1</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>38</v>
       </c>
@@ -4944,13 +5074,16 @@
         <v>5</v>
       </c>
       <c r="E41" s="7">
-        <v>1</v>
-      </c>
-      <c r="F41" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="7">
+        <v>1</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>39</v>
       </c>
@@ -4964,13 +5097,16 @@
         <v>6</v>
       </c>
       <c r="E42" s="7">
-        <v>2</v>
-      </c>
-      <c r="F42" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="7">
+        <v>1</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>40</v>
       </c>
@@ -4984,13 +5120,16 @@
         <v>7</v>
       </c>
       <c r="E43" s="7">
-        <v>2</v>
-      </c>
-      <c r="F43" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" s="7">
+        <v>1</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>41</v>
       </c>
@@ -5004,13 +5143,16 @@
         <v>8</v>
       </c>
       <c r="E44" s="7">
-        <v>2</v>
-      </c>
-      <c r="F44" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" s="7">
+        <v>1</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>42</v>
       </c>
@@ -5024,13 +5166,16 @@
         <v>9</v>
       </c>
       <c r="E45" s="7">
-        <v>2</v>
-      </c>
-      <c r="F45" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="7">
+        <v>1</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>43</v>
       </c>
@@ -5049,8 +5194,11 @@
       <c r="F46" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>44</v>
       </c>
@@ -5064,13 +5212,16 @@
         <v>2</v>
       </c>
       <c r="E47" s="7">
-        <v>1</v>
-      </c>
-      <c r="F47" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="7">
+        <v>1</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>45</v>
       </c>
@@ -5084,13 +5235,16 @@
         <v>3</v>
       </c>
       <c r="E48" s="7">
-        <v>1</v>
-      </c>
-      <c r="F48" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="7">
+        <v>1</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>46</v>
       </c>
@@ -5104,13 +5258,16 @@
         <v>4</v>
       </c>
       <c r="E49" s="7">
-        <v>1</v>
-      </c>
-      <c r="F49" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="7">
+        <v>1</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>47</v>
       </c>
@@ -5124,13 +5281,16 @@
         <v>5</v>
       </c>
       <c r="E50" s="7">
-        <v>1</v>
-      </c>
-      <c r="F50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="7">
+        <v>1</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>48</v>
       </c>
@@ -5144,13 +5304,16 @@
         <v>6</v>
       </c>
       <c r="E51" s="7">
-        <v>2</v>
-      </c>
-      <c r="F51" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" s="7">
+        <v>1</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>49</v>
       </c>
@@ -5164,13 +5327,16 @@
         <v>7</v>
       </c>
       <c r="E52" s="7">
-        <v>2</v>
-      </c>
-      <c r="F52" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" s="7">
+        <v>1</v>
+      </c>
+      <c r="G52" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>50</v>
       </c>
@@ -5184,13 +5350,16 @@
         <v>8</v>
       </c>
       <c r="E53" s="7">
-        <v>2</v>
-      </c>
-      <c r="F53" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" s="7">
+        <v>1</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>51</v>
       </c>
@@ -5204,9 +5373,12 @@
         <v>9</v>
       </c>
       <c r="E54" s="7">
-        <v>2</v>
-      </c>
-      <c r="F54" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54" s="7">
+        <v>1</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>97</v>
       </c>
     </row>

--- a/Excel/镇魂街/national_monster国战怪物表.xlsx
+++ b/Excel/镇魂街/national_monster国战怪物表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="209">
   <si>
     <t>Des1</t>
   </si>
@@ -266,34 +266,6 @@
     <t>9级剿匪</t>
   </si>
   <si>
-    <t>1级城</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2级城</t>
-  </si>
-  <si>
-    <t>3级城</t>
-  </si>
-  <si>
-    <t>4级城</t>
-  </si>
-  <si>
-    <t>5级城</t>
-  </si>
-  <si>
-    <t>6级城</t>
-  </si>
-  <si>
-    <t>7级城</t>
-  </si>
-  <si>
-    <t>8级城</t>
-  </si>
-  <si>
-    <t>9级城</t>
-  </si>
-  <si>
     <t>1级接战区</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -448,6 +420,228 @@
   </si>
   <si>
     <t>Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10级剿匪</t>
+  </si>
+  <si>
+    <t>11级剿匪</t>
+  </si>
+  <si>
+    <t>12级剿匪</t>
+  </si>
+  <si>
+    <t>13级剿匪</t>
+  </si>
+  <si>
+    <t>14级剿匪</t>
+  </si>
+  <si>
+    <t>15级剿匪</t>
+  </si>
+  <si>
+    <t>nationalWar_m_guard.txt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nationalWar_m_group.txt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Des3</t>
+  </si>
+  <si>
+    <t>Des4</t>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+  </si>
+  <si>
+    <t>string:e</t>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:&lt;&gt;</t>
+  </si>
+  <si>
+    <t>int:a&lt;&gt;</t>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+  </si>
+  <si>
+    <t>唯一键，怪物ID</t>
+  </si>
+  <si>
+    <t>1风2花3雪4月</t>
+  </si>
+  <si>
+    <t>角色类型</t>
+  </si>
+  <si>
+    <t>角色名</t>
+  </si>
+  <si>
+    <t>寄灵人1</t>
+  </si>
+  <si>
+    <t>战斗夏玲</t>
+  </si>
+  <si>
+    <t>1301003#1302003</t>
+  </si>
+  <si>
+    <t>战斗夏铃</t>
+  </si>
+  <si>
+    <t>守护灵1</t>
+  </si>
+  <si>
+    <t>李轩辕</t>
+  </si>
+  <si>
+    <t>寄灵人2</t>
+  </si>
+  <si>
+    <t>常服曹焱兵</t>
+  </si>
+  <si>
+    <t>1301001#1302001</t>
+  </si>
+  <si>
+    <t>守护灵2</t>
+  </si>
+  <si>
+    <t>于禁</t>
+  </si>
+  <si>
+    <t>寄灵人3</t>
+  </si>
+  <si>
+    <t>曹玄亮</t>
+  </si>
+  <si>
+    <t>1301002#1302002</t>
+  </si>
+  <si>
+    <t>守护灵3</t>
+  </si>
+  <si>
+    <t>唐流雨</t>
+  </si>
+  <si>
+    <t>阎风吒</t>
+  </si>
+  <si>
+    <t>1301011#1302011</t>
+  </si>
+  <si>
+    <t>飞廉</t>
+  </si>
+  <si>
+    <t>许褚</t>
+  </si>
+  <si>
+    <t>战斗曹焱兵</t>
+  </si>
+  <si>
+    <t>1301007#1302007</t>
+  </si>
+  <si>
+    <t>张郃</t>
+  </si>
+  <si>
+    <t>项昆仑</t>
+  </si>
+  <si>
+    <t>1301004#1302004</t>
+  </si>
+  <si>
+    <t>项羽</t>
+  </si>
+  <si>
+    <t>刘羽禅</t>
+  </si>
+  <si>
+    <t>1301005#1302005</t>
+  </si>
+  <si>
+    <t>关羽</t>
+  </si>
+  <si>
+    <t>红莲·缇娜</t>
+  </si>
+  <si>
+    <t>1301006#1302006</t>
+  </si>
+  <si>
+    <t>红莲缇娜</t>
+  </si>
+  <si>
+    <t>天使·缇娜</t>
+  </si>
+  <si>
+    <t>天使缇娜</t>
+  </si>
+  <si>
+    <t>吉拉</t>
+  </si>
+  <si>
+    <t>1301013#1302013</t>
+  </si>
+  <si>
+    <t>食火蜥</t>
+  </si>
+  <si>
+    <t>南御夫</t>
+  </si>
+  <si>
+    <t>1301012#1302012</t>
+  </si>
+  <si>
+    <t>噬日</t>
+  </si>
+  <si>
+    <t>吕仙宫</t>
+  </si>
+  <si>
+    <t>1301014#1302014</t>
+  </si>
+  <si>
+    <t>高顺</t>
+  </si>
+  <si>
+    <t>role_id:&lt;&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配对</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Difficult</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度标识
+目前显示为：
+统御等级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -455,234 +649,77 @@
 1.资源点守军
 2.讨伐区野怪守军
 3.剿匪怪点守军
-4.域都卫都关隘守军
-5.接战区地块守军</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10级剿匪</t>
-  </si>
-  <si>
-    <t>11级剿匪</t>
-  </si>
-  <si>
-    <t>12级剿匪</t>
-  </si>
-  <si>
-    <t>13级剿匪</t>
-  </si>
-  <si>
-    <t>14级剿匪</t>
-  </si>
-  <si>
-    <t>15级剿匪</t>
-  </si>
-  <si>
-    <t>nationalWar_m_guard.txt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+4.域都卫都关隘杀敌层守军
+5.接战区地块守军
+6.域都卫都关隘破城层守军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级城-杀敌层守军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级城-杀敌层守军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级城-杀敌层守军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4级城-杀敌层守军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5级城-杀敌层守军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6级城-杀敌层守军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7级城-杀敌层守军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8级城-杀敌层守军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9级城-杀敌层守军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级城-破城层守军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级城-破城层守军</t>
+  </si>
+  <si>
+    <t>3级城-破城层守军</t>
+  </si>
+  <si>
+    <t>4级城-破城层守军</t>
+  </si>
+  <si>
+    <t>5级城-破城层守军</t>
+  </si>
+  <si>
+    <t>6级城-破城层守军</t>
+  </si>
+  <si>
+    <t>7级城-破城层守军</t>
+  </si>
+  <si>
+    <t>8级城-破城层守军</t>
+  </si>
+  <si>
+    <t>9级城-破城层守军</t>
   </si>
   <si>
     <t>nationalWar_m_guard.lua</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nationalWar_m_group.txt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Des3</t>
-  </si>
-  <si>
-    <t>Des4</t>
-  </si>
-  <si>
-    <t>int:&lt;&gt;</t>
-  </si>
-  <si>
-    <t>string:e</t>
-  </si>
-  <si>
-    <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float:&lt;&gt;</t>
-  </si>
-  <si>
-    <t>int:a&lt;&gt;</t>
-  </si>
-  <si>
-    <t>int:e&lt;&gt;</t>
-  </si>
-  <si>
-    <t>唯一键，怪物ID</t>
-  </si>
-  <si>
-    <t>1风2花3雪4月</t>
-  </si>
-  <si>
-    <t>角色类型</t>
-  </si>
-  <si>
-    <t>角色名</t>
-  </si>
-  <si>
-    <t>寄灵人1</t>
-  </si>
-  <si>
-    <t>战斗夏玲</t>
-  </si>
-  <si>
-    <t>1301003#1302003</t>
-  </si>
-  <si>
-    <t>战斗夏铃</t>
-  </si>
-  <si>
-    <t>守护灵1</t>
-  </si>
-  <si>
-    <t>李轩辕</t>
-  </si>
-  <si>
-    <t>寄灵人2</t>
-  </si>
-  <si>
-    <t>常服曹焱兵</t>
-  </si>
-  <si>
-    <t>1301001#1302001</t>
-  </si>
-  <si>
-    <t>守护灵2</t>
-  </si>
-  <si>
-    <t>于禁</t>
-  </si>
-  <si>
-    <t>寄灵人3</t>
-  </si>
-  <si>
-    <t>曹玄亮</t>
-  </si>
-  <si>
-    <t>1301002#1302002</t>
-  </si>
-  <si>
-    <t>守护灵3</t>
-  </si>
-  <si>
-    <t>唐流雨</t>
-  </si>
-  <si>
-    <t>阎风吒</t>
-  </si>
-  <si>
-    <t>1301011#1302011</t>
-  </si>
-  <si>
-    <t>飞廉</t>
-  </si>
-  <si>
-    <t>许褚</t>
-  </si>
-  <si>
-    <t>战斗曹焱兵</t>
-  </si>
-  <si>
-    <t>1301007#1302007</t>
-  </si>
-  <si>
-    <t>张郃</t>
-  </si>
-  <si>
-    <t>项昆仑</t>
-  </si>
-  <si>
-    <t>1301004#1302004</t>
-  </si>
-  <si>
-    <t>项羽</t>
-  </si>
-  <si>
-    <t>刘羽禅</t>
-  </si>
-  <si>
-    <t>1301005#1302005</t>
-  </si>
-  <si>
-    <t>关羽</t>
-  </si>
-  <si>
-    <t>红莲·缇娜</t>
-  </si>
-  <si>
-    <t>1301006#1302006</t>
-  </si>
-  <si>
-    <t>红莲缇娜</t>
-  </si>
-  <si>
-    <t>天使·缇娜</t>
-  </si>
-  <si>
-    <t>天使缇娜</t>
-  </si>
-  <si>
-    <t>吉拉</t>
-  </si>
-  <si>
-    <t>1301013#1302013</t>
-  </si>
-  <si>
-    <t>食火蜥</t>
-  </si>
-  <si>
-    <t>南御夫</t>
-  </si>
-  <si>
-    <t>1301012#1302012</t>
-  </si>
-  <si>
-    <t>噬日</t>
-  </si>
-  <si>
-    <t>吕仙宫</t>
-  </si>
-  <si>
-    <t>1301014#1302014</t>
-  </si>
-  <si>
-    <t>高顺</t>
-  </si>
-  <si>
-    <t>role_id:&lt;&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>配对</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Difficult</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>难度标识
-目前显示为：
-统御等级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1089,7 +1126,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1107,43 +1144,43 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1155,14 +1192,14 @@
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1174,14 +1211,14 @@
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1193,17 +1230,17 @@
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>136</v>
+        <v>208</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="b">
@@ -1214,14 +1251,14 @@
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1326,7 +1363,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1335,10 +1372,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>50</v>
@@ -1402,96 +1439,96 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="I2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="K2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="L2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="M2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="N2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="O2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="P2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="Q2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="R2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="S2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="T2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="U2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="V2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="W2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="X2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>21</v>
@@ -1559,10 +1596,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F4" s="3" t="str">
         <f>"怪物"&amp;B4&amp;"-"&amp;C4&amp;D4&amp;E4</f>
@@ -1602,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="3">
@@ -1619,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
@@ -1633,10 +1670,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F5" s="3" t="str">
         <f t="shared" ref="F5:F33" si="0">"怪物"&amp;B5&amp;"-"&amp;C5&amp;D5&amp;E5</f>
@@ -1693,7 +1730,7 @@
         <v>3</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
@@ -1707,10 +1744,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="F6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1750,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3">
@@ -1767,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
@@ -1781,10 +1818,10 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="F7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1841,7 +1878,7 @@
         <v>2</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
@@ -1855,10 +1892,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1898,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3">
@@ -1915,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
@@ -1929,10 +1966,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1989,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
@@ -2004,10 +2041,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2047,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3">
@@ -2064,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
@@ -2079,10 +2116,10 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2139,7 +2176,7 @@
         <v>3</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
@@ -2154,10 +2191,10 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="F12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2197,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3">
@@ -2214,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
@@ -2229,10 +2266,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="F13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2289,7 +2326,7 @@
         <v>2</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
@@ -2304,10 +2341,10 @@
         <v>3</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="F14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2347,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="3">
@@ -2364,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
@@ -2379,10 +2416,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="F15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2439,7 +2476,7 @@
         <v>1</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
@@ -2454,10 +2491,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2497,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="3">
@@ -2514,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
@@ -2529,10 +2566,10 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2589,7 +2626,7 @@
         <v>3</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
@@ -2604,10 +2641,10 @@
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="F18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2647,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="S18" s="3"/>
       <c r="T18" s="3">
@@ -2664,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
@@ -2679,10 +2716,10 @@
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="F19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2739,7 +2776,7 @@
         <v>2</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
@@ -2754,10 +2791,10 @@
         <v>3</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="F20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2797,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3">
@@ -2814,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
@@ -2829,10 +2866,10 @@
         <v>3</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2889,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
@@ -2904,10 +2941,10 @@
         <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2947,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3">
@@ -2964,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
@@ -2979,10 +3016,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3039,7 +3076,7 @@
         <v>3</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
@@ -3054,10 +3091,10 @@
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="F24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3097,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="S24" s="3"/>
       <c r="T24" s="3">
@@ -3114,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
@@ -3129,10 +3166,10 @@
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="F25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3189,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
@@ -3204,10 +3241,10 @@
         <v>3</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="F26" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3247,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="S26" s="3"/>
       <c r="T26" s="3">
@@ -3264,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
@@ -3279,10 +3316,10 @@
         <v>3</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="F27" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3339,7 +3376,7 @@
         <v>2</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
@@ -3354,10 +3391,10 @@
         <v>1</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="F28" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3397,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="S28" s="3"/>
       <c r="T28" s="3">
@@ -3414,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
@@ -3429,10 +3466,10 @@
         <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F29" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3489,7 +3526,7 @@
         <v>2</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
@@ -3504,10 +3541,10 @@
         <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F30" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3547,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="S30" s="3"/>
       <c r="T30" s="3">
@@ -3564,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
@@ -3579,10 +3616,10 @@
         <v>2</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="F31" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3639,7 +3676,7 @@
         <v>2</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
@@ -3654,10 +3691,10 @@
         <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F32" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3697,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="S32" s="3"/>
       <c r="T32" s="3">
@@ -3714,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
@@ -3729,10 +3766,10 @@
         <v>3</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F33" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3789,7 +3826,7 @@
         <v>3</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
@@ -3818,16 +3855,16 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -3845,30 +3882,30 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -4103,24 +4140,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN54"/>
+  <dimension ref="A1:AN63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="18.375" style="7" customWidth="1"/>
-    <col min="3" max="5" width="9" style="7"/>
+    <col min="3" max="3" width="17.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="7"/>
     <col min="6" max="6" width="12.5" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>49</v>
@@ -4129,10 +4167,10 @@
         <v>50</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>51</v>
@@ -4165,13 +4203,13 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>20</v>
@@ -4186,12 +4224,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="8" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" s="8" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>47</v>
@@ -4200,7 +4238,7 @@
         <v>44</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>45</v>
@@ -4252,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.3">
@@ -4275,7 +4313,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.3">
@@ -4298,7 +4336,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.3">
@@ -4321,7 +4359,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.3">
@@ -4344,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.3">
@@ -4367,7 +4405,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.3">
@@ -4390,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.3">
@@ -4413,7 +4451,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.3">
@@ -4459,7 +4497,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.3">
@@ -4482,7 +4520,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.3">
@@ -4505,7 +4543,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -4528,7 +4566,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -4551,7 +4589,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -4574,7 +4612,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -4597,7 +4635,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -4620,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -4666,7 +4704,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -4689,7 +4727,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -4712,7 +4750,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -4735,7 +4773,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -4758,7 +4796,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -4781,7 +4819,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -4804,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -4827,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -4838,7 +4876,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D31" s="7">
         <v>10</v>
@@ -4850,7 +4888,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -4861,7 +4899,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D32" s="7">
         <v>11</v>
@@ -4873,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -4884,7 +4922,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D33" s="7">
         <v>12</v>
@@ -4896,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -4907,7 +4945,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D34" s="7">
         <v>13</v>
@@ -4919,7 +4957,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -4930,7 +4968,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D35" s="7">
         <v>14</v>
@@ -4942,7 +4980,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -4953,7 +4991,7 @@
         <v>3</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D36" s="7">
         <v>15</v>
@@ -4965,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -4976,7 +5014,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="D37" s="7">
         <v>1</v>
@@ -4985,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G37" s="7">
         <v>1</v>
@@ -4999,7 +5037,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="D38" s="7">
         <v>2</v>
@@ -5008,10 +5046,10 @@
         <v>5</v>
       </c>
       <c r="F38" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -5022,7 +5060,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="D39" s="7">
         <v>3</v>
@@ -5031,10 +5069,10 @@
         <v>8</v>
       </c>
       <c r="F39" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -5045,7 +5083,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="D40" s="7">
         <v>4</v>
@@ -5054,10 +5092,10 @@
         <v>15</v>
       </c>
       <c r="F40" s="7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -5068,7 +5106,7 @@
         <v>4</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c r="D41" s="7">
         <v>5</v>
@@ -5077,10 +5115,10 @@
         <v>20</v>
       </c>
       <c r="F41" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -5091,7 +5129,7 @@
         <v>4</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="D42" s="7">
         <v>6</v>
@@ -5100,10 +5138,10 @@
         <v>25</v>
       </c>
       <c r="F42" s="7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -5114,7 +5152,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="D43" s="7">
         <v>7</v>
@@ -5123,10 +5161,10 @@
         <v>30</v>
       </c>
       <c r="F43" s="7">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -5137,7 +5175,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="D44" s="7">
         <v>8</v>
@@ -5146,10 +5184,10 @@
         <v>35</v>
       </c>
       <c r="F44" s="7">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -5160,7 +5198,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="D45" s="7">
         <v>9</v>
@@ -5169,10 +5207,10 @@
         <v>40</v>
       </c>
       <c r="F45" s="7">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -5183,7 +5221,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D46" s="7">
         <v>1</v>
@@ -5206,7 +5244,7 @@
         <v>5</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D47" s="7">
         <v>2</v>
@@ -5218,7 +5256,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -5229,7 +5267,7 @@
         <v>5</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D48" s="7">
         <v>3</v>
@@ -5241,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -5252,7 +5290,7 @@
         <v>5</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D49" s="7">
         <v>4</v>
@@ -5264,7 +5302,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -5275,7 +5313,7 @@
         <v>5</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D50" s="7">
         <v>5</v>
@@ -5287,7 +5325,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -5298,7 +5336,7 @@
         <v>5</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D51" s="7">
         <v>6</v>
@@ -5310,7 +5348,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -5321,7 +5359,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D52" s="7">
         <v>7</v>
@@ -5333,7 +5371,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -5344,7 +5382,7 @@
         <v>5</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D53" s="7">
         <v>8</v>
@@ -5356,7 +5394,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -5367,7 +5405,7 @@
         <v>5</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D54" s="7">
         <v>9</v>
@@ -5379,7 +5417,214 @@
         <v>1</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="7">
+        <v>52</v>
+      </c>
+      <c r="B55" s="7">
+        <v>6</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D55" s="7">
+        <v>1</v>
+      </c>
+      <c r="E55" s="7">
+        <v>2</v>
+      </c>
+      <c r="F55" s="7">
+        <v>1</v>
+      </c>
+      <c r="G55" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="7">
+        <v>53</v>
+      </c>
+      <c r="B56" s="7">
+        <v>6</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D56" s="7">
+        <v>2</v>
+      </c>
+      <c r="E56" s="7">
+        <v>4</v>
+      </c>
+      <c r="F56" s="7">
+        <v>1</v>
+      </c>
+      <c r="G56" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="7">
+        <v>54</v>
+      </c>
+      <c r="B57" s="7">
+        <v>6</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D57" s="7">
+        <v>3</v>
+      </c>
+      <c r="E57" s="7">
+        <v>6</v>
+      </c>
+      <c r="F57" s="7">
+        <v>1</v>
+      </c>
+      <c r="G57" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="7">
+        <v>55</v>
+      </c>
+      <c r="B58" s="7">
+        <v>6</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D58" s="7">
+        <v>4</v>
+      </c>
+      <c r="E58" s="7">
+        <v>8</v>
+      </c>
+      <c r="F58" s="7">
+        <v>1</v>
+      </c>
+      <c r="G58" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="7">
+        <v>56</v>
+      </c>
+      <c r="B59" s="7">
+        <v>6</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D59" s="7">
+        <v>5</v>
+      </c>
+      <c r="E59" s="7">
+        <v>10</v>
+      </c>
+      <c r="F59" s="7">
+        <v>1</v>
+      </c>
+      <c r="G59" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="7">
+        <v>57</v>
+      </c>
+      <c r="B60" s="7">
+        <v>6</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D60" s="7">
+        <v>6</v>
+      </c>
+      <c r="E60" s="7">
+        <v>12</v>
+      </c>
+      <c r="F60" s="7">
+        <v>1</v>
+      </c>
+      <c r="G60" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="7">
+        <v>58</v>
+      </c>
+      <c r="B61" s="7">
+        <v>6</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D61" s="7">
+        <v>7</v>
+      </c>
+      <c r="E61" s="7">
+        <v>14</v>
+      </c>
+      <c r="F61" s="7">
+        <v>1</v>
+      </c>
+      <c r="G61" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="7">
+        <v>59</v>
+      </c>
+      <c r="B62" s="7">
+        <v>6</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D62" s="7">
+        <v>8</v>
+      </c>
+      <c r="E62" s="7">
+        <v>16</v>
+      </c>
+      <c r="F62" s="7">
+        <v>1</v>
+      </c>
+      <c r="G62" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="7">
+        <v>60</v>
+      </c>
+      <c r="B63" s="7">
+        <v>6</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D63" s="7">
+        <v>9</v>
+      </c>
+      <c r="E63" s="7">
+        <v>18</v>
+      </c>
+      <c r="F63" s="7">
+        <v>1</v>
+      </c>
+      <c r="G63" s="7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/national_monster国战怪物表.xlsx
+++ b/Excel/镇魂街/national_monster国战怪物表.xlsx
@@ -4143,7 +4143,7 @@
   <dimension ref="A1:AN63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5023,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G37" s="7">
         <v>1</v>
@@ -5069,7 +5069,7 @@
         <v>8</v>
       </c>
       <c r="F39" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>85</v>
@@ -5092,7 +5092,7 @@
         <v>15</v>
       </c>
       <c r="F40" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>86</v>
@@ -5115,7 +5115,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>87</v>
@@ -5138,7 +5138,7 @@
         <v>25</v>
       </c>
       <c r="F42" s="7">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>88</v>
@@ -5161,7 +5161,7 @@
         <v>30</v>
       </c>
       <c r="F43" s="7">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>88</v>
@@ -5184,7 +5184,7 @@
         <v>35</v>
       </c>
       <c r="F44" s="7">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>88</v>
@@ -5207,7 +5207,7 @@
         <v>40</v>
       </c>
       <c r="F45" s="7">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>88</v>
@@ -5630,5 +5630,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>